--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1814523333333333</v>
+        <v>0.1789903333333333</v>
       </c>
       <c r="H2">
-        <v>0.544357</v>
+        <v>0.536971</v>
       </c>
       <c r="I2">
-        <v>0.181754500189899</v>
+        <v>0.1405940142989478</v>
       </c>
       <c r="J2">
-        <v>0.206152260241964</v>
+        <v>0.1620097168840439</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.014021</v>
+        <v>0.2516033333333333</v>
       </c>
       <c r="N2">
-        <v>0.042063</v>
+        <v>0.75481</v>
       </c>
       <c r="O2">
-        <v>0.02569356530821986</v>
+        <v>0.5477584147437079</v>
       </c>
       <c r="P2">
-        <v>0.03203208767911102</v>
+        <v>0.5477584147437079</v>
       </c>
       <c r="Q2">
-        <v>0.002544143165666666</v>
+        <v>0.04503456450111112</v>
       </c>
       <c r="R2">
-        <v>0.022897288491</v>
+        <v>0.40531108051</v>
       </c>
       <c r="S2">
-        <v>0.004669921120692029</v>
+        <v>0.07701155439484586</v>
       </c>
       <c r="T2">
-        <v>0.006603487275317504</v>
+        <v>0.08874218569348084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1814523333333333</v>
+        <v>0.1789903333333333</v>
       </c>
       <c r="H3">
-        <v>0.544357</v>
+        <v>0.536971</v>
       </c>
       <c r="I3">
-        <v>0.181754500189899</v>
+        <v>0.1405940142989478</v>
       </c>
       <c r="J3">
-        <v>0.206152260241964</v>
+        <v>0.1620097168840439</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,37 +626,37 @@
         <v>0.623188</v>
       </c>
       <c r="O3">
-        <v>0.3806652301856481</v>
+        <v>0.4522415852562921</v>
       </c>
       <c r="P3">
-        <v>0.4745741544010137</v>
+        <v>0.4522415852562921</v>
       </c>
       <c r="Q3">
-        <v>0.03769297223511111</v>
+        <v>0.03718154261644444</v>
       </c>
       <c r="R3">
-        <v>0.339236750116</v>
+        <v>0.3346338835479999</v>
       </c>
       <c r="S3">
-        <v>0.06918761865206534</v>
+        <v>0.06358245990410197</v>
       </c>
       <c r="T3">
-        <v>0.09783453458218778</v>
+        <v>0.0732675311905631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -661,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1814523333333333</v>
+        <v>0.297118</v>
       </c>
       <c r="H4">
-        <v>0.544357</v>
+        <v>0.8913540000000001</v>
       </c>
       <c r="I4">
-        <v>0.181754500189899</v>
+        <v>0.2333813874891276</v>
       </c>
       <c r="J4">
-        <v>0.206152260241964</v>
+        <v>0.2689307414803781</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3239505</v>
+        <v>0.2516033333333333</v>
       </c>
       <c r="N4">
-        <v>0.6479010000000001</v>
+        <v>0.75481</v>
       </c>
       <c r="O4">
-        <v>0.5936412045061321</v>
+        <v>0.5477584147437079</v>
       </c>
       <c r="P4">
-        <v>0.4933937579198752</v>
+        <v>0.5477584147437079</v>
       </c>
       <c r="Q4">
-        <v>0.0587815741095</v>
+        <v>0.07475587919333335</v>
       </c>
       <c r="R4">
-        <v>0.352689444657</v>
+        <v>0.67280291274</v>
       </c>
       <c r="S4">
-        <v>0.1078969604171417</v>
+        <v>0.1278366188417316</v>
       </c>
       <c r="T4">
-        <v>0.1017142383844587</v>
+        <v>0.1473090766291418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,72 +732,72 @@
         <v>0.8913540000000001</v>
       </c>
       <c r="I5">
-        <v>0.2976127812488262</v>
+        <v>0.2333813874891276</v>
       </c>
       <c r="J5">
-        <v>0.3375627424203521</v>
+        <v>0.2689307414803781</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.014021</v>
+        <v>0.2077293333333333</v>
       </c>
       <c r="N5">
-        <v>0.042063</v>
+        <v>0.623188</v>
       </c>
       <c r="O5">
-        <v>0.02569356530821986</v>
+        <v>0.4522415852562921</v>
       </c>
       <c r="P5">
-        <v>0.03203208767911102</v>
+        <v>0.4522415852562921</v>
       </c>
       <c r="Q5">
-        <v>0.004165891478</v>
+        <v>0.06172012406133334</v>
       </c>
       <c r="R5">
-        <v>0.037493023302</v>
+        <v>0.5554811165520001</v>
       </c>
       <c r="S5">
-        <v>0.007646733431577665</v>
+        <v>0.1055447686473961</v>
       </c>
       <c r="T5">
-        <v>0.01081283936240989</v>
+        <v>0.1216216648512363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.297118</v>
+        <v>0.03373033333333333</v>
       </c>
       <c r="H6">
-        <v>0.8913540000000001</v>
+        <v>0.101191</v>
       </c>
       <c r="I6">
-        <v>0.2976127812488262</v>
+        <v>0.02649463174161143</v>
       </c>
       <c r="J6">
-        <v>0.3375627424203521</v>
+        <v>0.03053037363510002</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,101 +806,101 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2077293333333333</v>
+        <v>0.2516033333333333</v>
       </c>
       <c r="N6">
-        <v>0.623188</v>
+        <v>0.75481</v>
       </c>
       <c r="O6">
-        <v>0.3806652301856481</v>
+        <v>0.5477584147437079</v>
       </c>
       <c r="P6">
-        <v>0.4745741544010137</v>
+        <v>0.5477584147437079</v>
       </c>
       <c r="Q6">
-        <v>0.06172012406133334</v>
+        <v>0.008486664301111111</v>
       </c>
       <c r="R6">
-        <v>0.5554811165520001</v>
+        <v>0.07637997871</v>
       </c>
       <c r="S6">
-        <v>0.1132908378802754</v>
+        <v>0.0145126574820034</v>
       </c>
       <c r="T6">
-        <v>0.1601985530414258</v>
+        <v>0.01672326906389548</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.297118</v>
+        <v>0.03373033333333333</v>
       </c>
       <c r="H7">
-        <v>0.8913540000000001</v>
+        <v>0.101191</v>
       </c>
       <c r="I7">
-        <v>0.2976127812488262</v>
+        <v>0.02649463174161143</v>
       </c>
       <c r="J7">
-        <v>0.3375627424203521</v>
+        <v>0.03053037363510002</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3239505</v>
+        <v>0.2077293333333333</v>
       </c>
       <c r="N7">
-        <v>0.6479010000000001</v>
+        <v>0.623188</v>
       </c>
       <c r="O7">
-        <v>0.5936412045061321</v>
+        <v>0.4522415852562921</v>
       </c>
       <c r="P7">
-        <v>0.4933937579198752</v>
+        <v>0.4522415852562921</v>
       </c>
       <c r="Q7">
-        <v>0.09625152465900003</v>
+        <v>0.007006779656444444</v>
       </c>
       <c r="R7">
-        <v>0.5775091479540001</v>
+        <v>0.06306101690799999</v>
       </c>
       <c r="S7">
-        <v>0.1766752099369732</v>
+        <v>0.01198197425960803</v>
       </c>
       <c r="T7">
-        <v>0.1665513500165164</v>
+        <v>0.01380710457120454</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -909,57 +912,57 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3544545</v>
+        <v>0.504865</v>
       </c>
       <c r="H8">
-        <v>0.708909</v>
+        <v>1.00973</v>
       </c>
       <c r="I8">
-        <v>0.3550447619166864</v>
+        <v>0.3965632987388795</v>
       </c>
       <c r="J8">
-        <v>0.268469391696755</v>
+        <v>0.304646007753353</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.014021</v>
+        <v>0.2516033333333333</v>
       </c>
       <c r="N8">
-        <v>0.042063</v>
+        <v>0.75481</v>
       </c>
       <c r="O8">
-        <v>0.02569356530821986</v>
+        <v>0.5477584147437079</v>
       </c>
       <c r="P8">
-        <v>0.03203208767911102</v>
+        <v>0.5477584147437079</v>
       </c>
       <c r="Q8">
-        <v>0.0049698065445</v>
+        <v>0.1270257168833333</v>
       </c>
       <c r="R8">
-        <v>0.029818839267</v>
+        <v>0.7621543012999999</v>
       </c>
       <c r="S8">
-        <v>0.009122365777647754</v>
+        <v>0.2172208838627441</v>
       </c>
       <c r="T8">
-        <v>0.008599635093988055</v>
+        <v>0.166872414264976</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -971,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3544545</v>
+        <v>0.504865</v>
       </c>
       <c r="H9">
-        <v>0.708909</v>
+        <v>1.00973</v>
       </c>
       <c r="I9">
-        <v>0.3550447619166864</v>
+        <v>0.3965632987388795</v>
       </c>
       <c r="J9">
-        <v>0.268469391696755</v>
+        <v>0.304646007753353</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,98 +998,98 @@
         <v>0.623188</v>
       </c>
       <c r="O9">
-        <v>0.3806652301856481</v>
+        <v>0.4522415852562921</v>
       </c>
       <c r="P9">
-        <v>0.4745741544010137</v>
+        <v>0.4522415852562921</v>
       </c>
       <c r="Q9">
-        <v>0.073630596982</v>
+        <v>0.1048752698733333</v>
       </c>
       <c r="R9">
-        <v>0.441783581892</v>
+        <v>0.6292516192399999</v>
       </c>
       <c r="S9">
-        <v>0.1351531960212241</v>
+        <v>0.1793424148761354</v>
       </c>
       <c r="T9">
-        <v>0.127408634547042</v>
+        <v>0.137773593488377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3544545</v>
+        <v>0.258397</v>
       </c>
       <c r="H10">
-        <v>0.708909</v>
+        <v>0.775191</v>
       </c>
       <c r="I10">
-        <v>0.3550447619166864</v>
+        <v>0.2029666677314337</v>
       </c>
       <c r="J10">
-        <v>0.268469391696755</v>
+        <v>0.2338831602471249</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3239505</v>
+        <v>0.2516033333333333</v>
       </c>
       <c r="N10">
-        <v>0.6479010000000001</v>
+        <v>0.75481</v>
       </c>
       <c r="O10">
-        <v>0.5936412045061321</v>
+        <v>0.5477584147437079</v>
       </c>
       <c r="P10">
-        <v>0.4933937579198752</v>
+        <v>0.5477584147437079</v>
       </c>
       <c r="Q10">
-        <v>0.11482571250225</v>
+        <v>0.06501354652333333</v>
       </c>
       <c r="R10">
-        <v>0.4593028500090001</v>
+        <v>0.58512191871</v>
       </c>
       <c r="S10">
-        <v>0.2107692001178146</v>
+        <v>0.111176700162383</v>
       </c>
       <c r="T10">
-        <v>0.1324611220557249</v>
+        <v>0.1281114690922137</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1095,170 +1098,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1653126666666667</v>
+        <v>0.258397</v>
       </c>
       <c r="H11">
-        <v>0.495938</v>
+        <v>0.775191</v>
       </c>
       <c r="I11">
-        <v>0.1655879566445883</v>
+        <v>0.2029666677314337</v>
       </c>
       <c r="J11">
-        <v>0.1878156056409289</v>
+        <v>0.2338831602471249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.014021</v>
+        <v>0.2077293333333333</v>
       </c>
       <c r="N11">
-        <v>0.042063</v>
+        <v>0.623188</v>
       </c>
       <c r="O11">
-        <v>0.02569356530821986</v>
+        <v>0.4522415852562921</v>
       </c>
       <c r="P11">
-        <v>0.03203208767911102</v>
+        <v>0.4522415852562921</v>
       </c>
       <c r="Q11">
-        <v>0.002317848899333333</v>
+        <v>0.05367663654533333</v>
       </c>
       <c r="R11">
-        <v>0.020860640094</v>
+        <v>0.4830897289079999</v>
       </c>
       <c r="S11">
-        <v>0.004254544978302408</v>
+        <v>0.09178996756905067</v>
       </c>
       <c r="T11">
-        <v>0.006016125947395574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.1653126666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.495938</v>
-      </c>
-      <c r="I12">
-        <v>0.1655879566445883</v>
-      </c>
-      <c r="J12">
-        <v>0.1878156056409289</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.2077293333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.623188</v>
-      </c>
-      <c r="O12">
-        <v>0.3806652301856481</v>
-      </c>
-      <c r="P12">
-        <v>0.4745741544010137</v>
-      </c>
-      <c r="Q12">
-        <v>0.03434029003822223</v>
-      </c>
-      <c r="R12">
-        <v>0.309062610344</v>
-      </c>
-      <c r="S12">
-        <v>0.06303357763208334</v>
-      </c>
-      <c r="T12">
-        <v>0.08913243223035811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.1653126666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.495938</v>
-      </c>
-      <c r="I13">
-        <v>0.1655879566445883</v>
-      </c>
-      <c r="J13">
-        <v>0.1878156056409289</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.3239505</v>
-      </c>
-      <c r="N13">
-        <v>0.6479010000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.5936412045061321</v>
-      </c>
-      <c r="P13">
-        <v>0.4933937579198752</v>
-      </c>
-      <c r="Q13">
-        <v>0.05355312102300001</v>
-      </c>
-      <c r="R13">
-        <v>0.3213187261380001</v>
-      </c>
-      <c r="S13">
-        <v>0.09829983403420259</v>
-      </c>
-      <c r="T13">
-        <v>0.09266704746317525</v>
+        <v>0.1057716911549112</v>
       </c>
     </row>
   </sheetData>
